--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2004.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2004.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>98845.889999999999</t>
+          <t>98845.89</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>6298.5299999999997</t>
+          <t>6298.53</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>45.840000000000003</t>
+          <t>45.84</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>24862.049999999999</t>
+          <t>24862.05</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>684.60000000000002</t>
+          <t>684.6</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>47.780000000000001</t>
+          <t>47.78</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>534.65999999999997</t>
+          <t>534.66</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>6365.8800000000001</t>
+          <t>6365.88</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>1231.4100000000001</t>
+          <t>1231.41</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>74.829999999999998</t>
+          <t>74.83</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>18269.439999999999</t>
+          <t>18269.44</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>1498.8099999999999</t>
+          <t>1498.81</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>3184.6500000000001</t>
+          <t>3184.65</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>191.80000000000001</t>
+          <t>191.8</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>1314.8900000000001</t>
+          <t>1314.89</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>46.159999999999997</t>
+          <t>46.16</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>4536.3000000000002</t>
+          <t>4536.3</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>95.560000000000002</t>
+          <t>95.56</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>4418.1899999999996</t>
+          <t>4418.19</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>184.53999999999999</t>
+          <t>184.54</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>576.11000000000001</t>
+          <t>576.11</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>1095.6099999999999</t>
+          <t>1095.61</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>202431.98999999999</t>
+          <t>202431.99</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>5811.5100000000002</t>
+          <t>5811.51</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>7548.0799999999999</t>
+          <t>7548.08</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>3569.8699999999999</t>
+          <t>3569.87</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>664.47000000000003</t>
+          <t>664.47</t>
         </is>
       </c>
       <c r="E72" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>1209.5799999999999</t>
+          <t>1209.58</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>26501.889999999999</t>
+          <t>26501.89</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>2012.4300000000001</t>
+          <t>2012.43</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>62.299999999999997</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>2373.0700000000002</t>
+          <t>2373.07</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>34333.129999999997</t>
+          <t>34333.13</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>171.15000000000001</t>
+          <t>171.15</t>
         </is>
       </c>
       <c r="E95" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>725.61000000000001</t>
+          <t>725.61</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>850.94000000000005</t>
+          <t>850.94</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>2068.4000000000001</t>
+          <t>2068.4</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>1386.6400000000001</t>
+          <t>1386.64</t>
         </is>
       </c>
       <c r="E107" s="0" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
-          <t>34.340000000000003</t>
+          <t>34.34</t>
         </is>
       </c>
       <c r="E108" s="0" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>441.27999999999997</t>
+          <t>441.28</t>
         </is>
       </c>
       <c r="E109" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>9424.6800000000003</t>
+          <t>9424.68</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>966854.06999999995</t>
+          <t>966854.07</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>203408.89000000001</t>
+          <t>203408.89</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>17618.029999999999</t>
+          <t>17618.03</t>
         </is>
       </c>
       <c r="E122" s="0" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="D123" s="0" t="inlineStr">
         <is>
-          <t>10565.139999999999</t>
+          <t>10565.14</t>
         </is>
       </c>
       <c r="E123" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>146983.26999999999</t>
+          <t>146983.27</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>3252.9000000000001</t>
+          <t>3252.9</t>
         </is>
       </c>
       <c r="E143" s="0" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D145" s="0" t="inlineStr">
         <is>
-          <t>1802.3199999999999</t>
+          <t>1802.32</t>
         </is>
       </c>
       <c r="E145" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>6918.8599999999997</t>
+          <t>6918.86</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="D153" s="0" t="inlineStr">
         <is>
-          <t>9.4299999999999997</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E153" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>5140471.0300000003</t>
+          <t>5140471.03</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>89243.789999999994</t>
+          <t>89243.79</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>115875.85000000001</t>
+          <t>115875.85</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>33979.730000000003</t>
+          <t>33979.73</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>1195993.6200000001</t>
+          <t>1195993.62</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t>3428.1399999999999</t>
+          <t>3428.14</t>
         </is>
       </c>
       <c r="E165" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>3811368.1800000002</t>
+          <t>3811368.18</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>136297.92999999999</t>
+          <t>136297.93</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>65929.809999999998</t>
+          <t>65929.81</t>
         </is>
       </c>
       <c r="E170" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>2226711.3399999999</t>
+          <t>2226711.34</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>677174.15000000002</t>
+          <t>677174.15</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>107058.14999999999</t>
+          <t>107058.15</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>45040.160000000003</t>
+          <t>45040.16</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>443144.47999999998</t>
+          <t>443144.48</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>43532.330000000002</t>
+          <t>43532.33</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>15498.290000000001</t>
+          <t>15498.29</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>421417.51000000001</t>
+          <t>421417.51</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>16893.810000000001</t>
+          <t>16893.81</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>2.8199999999999998</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>67320.649999999994</t>
+          <t>67320.65</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>77694.679999999993</t>
+          <t>77694.68</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>48712.050000000003</t>
+          <t>48712.05</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="D186" s="0" t="inlineStr">
         <is>
-          <t>3292.8899999999999</t>
+          <t>3292.89</t>
         </is>
       </c>
       <c r="E186" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>48817.379999999997</t>
+          <t>48817.38</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>138280.95000000001</t>
+          <t>138280.95</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>434773.59000000003</t>
+          <t>434773.59</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>425673.14000000001</t>
+          <t>425673.14</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>1899.8399999999999</t>
+          <t>1899.84</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>33.920000000000002</t>
+          <t>33.92</t>
         </is>
       </c>
       <c r="E197" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>8318.7099999999991</t>
+          <t>8318.71</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>128669.99000000001</t>
+          <t>128669.99</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D205" s="0" t="inlineStr">
         <is>
-          <t>8.6500000000000004</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E205" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>20833.939999999999</t>
+          <t>20833.94</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="D209" s="0" t="inlineStr">
         <is>
-          <t>27.100000000000001</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E209" s="0" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>10065.700000000001</t>
+          <t>10065.7</t>
         </is>
       </c>
       <c r="E214" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>33987.580000000002</t>
+          <t>33987.58</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>222889.60000000001</t>
+          <t>222889.6</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="D223" s="0" t="inlineStr">
         <is>
-          <t>32.600000000000001</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="E223" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>1893.8099999999999</t>
+          <t>1893.81</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>74147.630000000005</t>
+          <t>74147.63</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="D231" s="0" t="inlineStr">
         <is>
-          <t>22.489999999999998</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="E231" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>447.68000000000001</t>
+          <t>447.68</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>5870.0699999999997</t>
+          <t>5870.07</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>10707152.539999999</t>
+          <t>10707152.54</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>7456.1599999999999</t>
+          <t>7456.16</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>57528.970000000001</t>
+          <t>57528.97</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="D241" s="0" t="inlineStr">
         <is>
-          <t>312.42000000000002</t>
+          <t>312.42</t>
         </is>
       </c>
       <c r="E241" s="0" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="D243" s="0" t="inlineStr">
         <is>
-          <t>502.30000000000001</t>
+          <t>502.3</t>
         </is>
       </c>
       <c r="E243" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>636.01999999999998</t>
+          <t>636.02</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>19901.080000000002</t>
+          <t>19901.08</t>
         </is>
       </c>
       <c r="E245" s="0" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="D246" s="0" t="inlineStr">
         <is>
-          <t>6581.6800000000003</t>
+          <t>6581.68</t>
         </is>
       </c>
       <c r="E246" s="0" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="D249" s="0" t="inlineStr">
         <is>
-          <t>1394.0699999999999</t>
+          <t>1394.07</t>
         </is>
       </c>
       <c r="E249" s="0" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="D252" s="0" t="inlineStr">
         <is>
-          <t>11027.200000000001</t>
+          <t>11027.2</t>
         </is>
       </c>
       <c r="E252" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>683015.82999999996</t>
+          <t>683015.83</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>165183.60000000001</t>
+          <t>165183.6</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>77537.149999999994</t>
+          <t>77537.15</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>1479.5999999999999</t>
+          <t>1479.6</t>
         </is>
       </c>
       <c r="E261" s="0" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="D263" s="0" t="inlineStr">
         <is>
-          <t>637.48000000000002</t>
+          <t>637.48</t>
         </is>
       </c>
       <c r="E263" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>2005.0699999999999</t>
+          <t>2005.07</t>
         </is>
       </c>
       <c r="E265" s="0" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t>1476.0599999999999</t>
+          <t>1476.06</t>
         </is>
       </c>
       <c r="E273" s="0" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="D276" s="0" t="inlineStr">
         <is>
-          <t>230.49000000000001</t>
+          <t>230.49</t>
         </is>
       </c>
       <c r="E276" s="0" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>23295.459999999999</t>
+          <t>23295.46</t>
         </is>
       </c>
       <c r="E284" s="0" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>10625.610000000001</t>
+          <t>10625.61</t>
         </is>
       </c>
       <c r="E285" s="0" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="D289" s="0" t="inlineStr">
         <is>
-          <t>6334.9300000000003</t>
+          <t>6334.93</t>
         </is>
       </c>
       <c r="E289" s="0" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>25449.189999999999</t>
+          <t>25449.19</t>
         </is>
       </c>
       <c r="E291" s="0" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="D292" s="0" t="inlineStr">
         <is>
-          <t>18169.900000000001</t>
+          <t>18169.9</t>
         </is>
       </c>
       <c r="E292" s="0" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>2613.9000000000001</t>
+          <t>2613.9</t>
         </is>
       </c>
       <c r="E294" s="0" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="D299" s="0" t="inlineStr">
         <is>
-          <t>4145.1000000000004</t>
+          <t>4145.1</t>
         </is>
       </c>
       <c r="E299" s="0" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="D302" s="0" t="inlineStr">
         <is>
-          <t>1829.6600000000001</t>
+          <t>1829.66</t>
         </is>
       </c>
       <c r="E302" s="0" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="D303" s="0" t="inlineStr">
         <is>
-          <t>3289.6199999999999</t>
+          <t>3289.62</t>
         </is>
       </c>
       <c r="E303" s="0" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>443.73000000000002</t>
+          <t>443.73</t>
         </is>
       </c>
       <c r="E312" s="0" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="D317" s="0" t="inlineStr">
         <is>
-          <t>6276.5200000000004</t>
+          <t>6276.52</t>
         </is>
       </c>
       <c r="E317" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>358577.59000000003</t>
+          <t>358577.59</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>18058.240000000002</t>
+          <t>18058.24</t>
         </is>
       </c>
       <c r="E327" s="0" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>29523.459999999999</t>
+          <t>29523.46</t>
         </is>
       </c>
       <c r="E328" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>5227443.9199999999</t>
+          <t>5227443.92</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
-          <t>2238.5599999999999</t>
+          <t>2238.56</t>
         </is>
       </c>
       <c r="E338" s="0" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="D340" s="0" t="inlineStr">
         <is>
-          <t>9013.7900000000009</t>
+          <t>9013.79</t>
         </is>
       </c>
       <c r="E340" s="0" t="inlineStr">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="D344" s="0" t="inlineStr">
         <is>
-          <t>55.770000000000003</t>
+          <t>55.77</t>
         </is>
       </c>
       <c r="E344" s="0" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="D350" s="0" t="inlineStr">
         <is>
-          <t>3862.6999999999998</t>
+          <t>3862.7</t>
         </is>
       </c>
       <c r="E350" s="0" t="inlineStr">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="D354" s="0" t="inlineStr">
         <is>
-          <t>6148.4399999999996</t>
+          <t>6148.44</t>
         </is>
       </c>
       <c r="E354" s="0" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="D355" s="0" t="inlineStr">
         <is>
-          <t>536.32000000000005</t>
+          <t>536.32</t>
         </is>
       </c>
       <c r="E355" s="0" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="D368" s="0" t="inlineStr">
         <is>
-          <t>2693.6999999999998</t>
+          <t>2693.7</t>
         </is>
       </c>
       <c r="E368" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D374" s="0" t="inlineStr">
         <is>
-          <t>30.600000000000001</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="E374" s="0" t="inlineStr">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="D383" s="0" t="inlineStr">
         <is>
-          <t>41165.230000000003</t>
+          <t>41165.23</t>
         </is>
       </c>
       <c r="E383" s="0" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="D386" s="0" t="inlineStr">
         <is>
-          <t>1408.1199999999999</t>
+          <t>1408.12</t>
         </is>
       </c>
       <c r="E386" s="0" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="D403" s="0" t="inlineStr">
         <is>
-          <t>167.06999999999999</t>
+          <t>167.07</t>
         </is>
       </c>
       <c r="E403" s="0" t="inlineStr">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="D405" s="0" t="inlineStr">
         <is>
-          <t>965.83000000000004</t>
+          <t>965.83</t>
         </is>
       </c>
       <c r="E405" s="0" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="D415" s="0" t="inlineStr">
         <is>
-          <t>29265.720000000001</t>
+          <t>29265.72</t>
         </is>
       </c>
       <c r="E415" s="0" t="inlineStr">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="D418" s="0" t="inlineStr">
         <is>
-          <t>1.3600000000000001</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E418" s="0" t="inlineStr">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="D419" s="0" t="inlineStr">
         <is>
-          <t>4.1100000000000003</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E419" s="0" t="inlineStr">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="D421" s="0" t="inlineStr">
         <is>
-          <t>1.3600000000000001</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E421" s="0" t="inlineStr">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="D423" s="0" t="inlineStr">
         <is>
-          <t>990.09000000000003</t>
+          <t>990.09</t>
         </is>
       </c>
       <c r="E423" s="0" t="inlineStr">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="D424" s="0" t="inlineStr">
         <is>
-          <t>601.73000000000002</t>
+          <t>601.73</t>
         </is>
       </c>
       <c r="E424" s="0" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="D425" s="0" t="inlineStr">
         <is>
-          <t>73.280000000000001</t>
+          <t>73.28</t>
         </is>
       </c>
       <c r="E425" s="0" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="D426" s="0" t="inlineStr">
         <is>
-          <t>56.509999999999998</t>
+          <t>56.51</t>
         </is>
       </c>
       <c r="E426" s="0" t="inlineStr">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="D431" s="0" t="inlineStr">
         <is>
-          <t>4459.1499999999996</t>
+          <t>4459.15</t>
         </is>
       </c>
       <c r="E431" s="0" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="D433" s="0" t="inlineStr">
         <is>
-          <t>58.479999999999997</t>
+          <t>58.48</t>
         </is>
       </c>
       <c r="E433" s="0" t="inlineStr">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="D434" s="0" t="inlineStr">
         <is>
-          <t>33.450000000000003</t>
+          <t>33.45</t>
         </is>
       </c>
       <c r="E434" s="0" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="D444" s="0" t="inlineStr">
         <is>
-          <t>400.39999999999998</t>
+          <t>400.4</t>
         </is>
       </c>
       <c r="E444" s="0" t="inlineStr">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="D453" s="0" t="inlineStr">
         <is>
-          <t>5.3799999999999999</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E453" s="0" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="D458" s="0" t="inlineStr">
         <is>
-          <t>377.58999999999997</t>
+          <t>377.59</t>
         </is>
       </c>
       <c r="E458" s="0" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D471" s="0" t="inlineStr">
         <is>
-          <t>891.00999999999999</t>
+          <t>891.01</t>
         </is>
       </c>
       <c r="E471" s="0" t="inlineStr">
@@ -13105,7 +13105,7 @@
       </c>
       <c r="D472" s="0" t="inlineStr">
         <is>
-          <t>9.4000000000000004</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="E472" s="0" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="D480" s="0" t="inlineStr">
         <is>
-          <t>457.06999999999999</t>
+          <t>457.07</t>
         </is>
       </c>
       <c r="E480" s="0" t="inlineStr">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="D481" s="0" t="inlineStr">
         <is>
-          <t>663.39999999999998</t>
+          <t>663.4</t>
         </is>
       </c>
       <c r="E481" s="0" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="D489" s="0" t="inlineStr">
         <is>
-          <t>92.140000000000001</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="E489" s="0" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="D492" s="0" t="inlineStr">
         <is>
-          <t>163.77000000000001</t>
+          <t>163.77</t>
         </is>
       </c>
       <c r="E492" s="0" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="D496" s="0" t="inlineStr">
         <is>
-          <t>318.77999999999997</t>
+          <t>318.78</t>
         </is>
       </c>
       <c r="E496" s="0" t="inlineStr">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="D498" s="0" t="inlineStr">
         <is>
-          <t>58.649999999999999</t>
+          <t>58.65</t>
         </is>
       </c>
       <c r="E498" s="0" t="inlineStr">
@@ -13834,7 +13834,7 @@
       </c>
       <c r="D499" s="0" t="inlineStr">
         <is>
-          <t>27.600000000000001</t>
+          <t>27.6</t>
         </is>
       </c>
       <c r="E499" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>93526.320000000007</t>
+          <t>93526.32</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>3017.3099999999999</t>
+          <t>3017.31</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
@@ -14158,7 +14158,7 @@
       </c>
       <c r="D511" s="0" t="inlineStr">
         <is>
-          <t>214.52000000000001</t>
+          <t>214.52</t>
         </is>
       </c>
       <c r="E511" s="0" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>5443.8599999999997</t>
+          <t>5443.86</t>
         </is>
       </c>
       <c r="E512" s="0" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="D513" s="0" t="inlineStr">
         <is>
-          <t>798.19000000000005</t>
+          <t>798.19</t>
         </is>
       </c>
       <c r="E513" s="0" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="D514" s="0" t="inlineStr">
         <is>
-          <t>1068.9400000000001</t>
+          <t>1068.94</t>
         </is>
       </c>
       <c r="E514" s="0" t="inlineStr">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="D517" s="0" t="inlineStr">
         <is>
-          <t>580.01999999999998</t>
+          <t>580.02</t>
         </is>
       </c>
       <c r="E517" s="0" t="inlineStr">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="D547" s="0" t="inlineStr">
         <is>
-          <t>63.259999999999998</t>
+          <t>63.26</t>
         </is>
       </c>
       <c r="E547" s="0" t="inlineStr">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="D555" s="0" t="inlineStr">
         <is>
-          <t>475.56999999999999</t>
+          <t>475.57</t>
         </is>
       </c>
       <c r="E555" s="0" t="inlineStr">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="D561" s="0" t="inlineStr">
         <is>
-          <t>70.400000000000006</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="E561" s="0" t="inlineStr">
@@ -15778,7 +15778,7 @@
       </c>
       <c r="D571" s="0" t="inlineStr">
         <is>
-          <t>142.91999999999999</t>
+          <t>142.92</t>
         </is>
       </c>
       <c r="E571" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>336589.48999999999</t>
+          <t>336589.49</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="D589" s="0" t="inlineStr">
         <is>
-          <t>527.90999999999997</t>
+          <t>527.91</t>
         </is>
       </c>
       <c r="E589" s="0" t="inlineStr">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="D604" s="0" t="inlineStr">
         <is>
-          <t>1.6799999999999999</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E604" s="0" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="D606" s="0" t="inlineStr">
         <is>
-          <t>65.379999999999995</t>
+          <t>65.38</t>
         </is>
       </c>
       <c r="E606" s="0" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="D610" s="0" t="inlineStr">
         <is>
-          <t>69.799999999999997</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="E610" s="0" t="inlineStr">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="D611" s="0" t="inlineStr">
         <is>
-          <t>3.5099999999999998</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E611" s="0" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="D614" s="0" t="inlineStr">
         <is>
-          <t>83.099999999999994</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="E614" s="0" t="inlineStr">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="D619" s="0" t="inlineStr">
         <is>
-          <t>14.390000000000001</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="E619" s="0" t="inlineStr">
@@ -17614,7 +17614,7 @@
       </c>
       <c r="D639" s="0" t="inlineStr">
         <is>
-          <t>32.280000000000001</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="E639" s="0" t="inlineStr">
@@ -17965,7 +17965,7 @@
       </c>
       <c r="D652" s="0" t="inlineStr">
         <is>
-          <t>60.659999999999997</t>
+          <t>60.66</t>
         </is>
       </c>
       <c r="E652" s="0" t="inlineStr">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="D671" s="0" t="inlineStr">
         <is>
-          <t>1419.6600000000001</t>
+          <t>1419.66</t>
         </is>
       </c>
       <c r="E671" s="0" t="inlineStr">
@@ -18829,7 +18829,7 @@
       </c>
       <c r="D684" s="0" t="inlineStr">
         <is>
-          <t>3.1699999999999999</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E684" s="0" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="D685" s="0" t="inlineStr">
         <is>
-          <t>26751.259999999998</t>
+          <t>26751.26</t>
         </is>
       </c>
       <c r="E685" s="0" t="inlineStr">
